--- a/config/excel/activity.xlsx
+++ b/config/excel/activity.xlsx
@@ -10,7 +10,7 @@
     <sheet name="quest" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">quest!$F$1:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">quest!$F$1:$F$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve"> 字段</t>
   </si>
@@ -80,22 +80,16 @@
     <t>cron</t>
   </si>
   <si>
+    <t>END</t>
+  </si>
+  <si>
     <t>首充活动</t>
   </si>
   <si>
-    <t>0 0 12 1 1 ? 2025</t>
-  </si>
-  <si>
-    <t>0 0 12 1 1 ? 2027</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>限时礼包</t>
+    <t>0 0 12 1 1 * 2025</t>
+  </si>
+  <si>
+    <t>0 0 12 1 1 * 2027</t>
   </si>
 </sst>
 </file>
@@ -130,6 +124,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -140,14 +142,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -785,16 +779,16 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,13 +1139,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C15:C16"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.43333333333333" style="2" customWidth="1"/>
@@ -1231,43 +1225,25 @@
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:7">
-      <c r="B4" s="7">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8">
         <v>1001</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A5" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7">
-        <v>1002</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="G4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
